--- a/PASKurs/лабораторные работы/l6/PAS6.xlsx
+++ b/PASKurs/лабораторные работы/l6/PAS6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5 - OSR" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t xml:space="preserve">стоимость = </t>
   </si>
@@ -142,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,16 +158,30 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -307,97 +321,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -682,15 +771,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:N10"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="5.44140625" customWidth="1"/>
-    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="1" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="11.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="5.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="4:14" x14ac:dyDescent="0.3">
@@ -715,11 +808,9 @@
       </c>
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="4:14" x14ac:dyDescent="0.3">
       <c r="K8" s="1" t="s">
@@ -732,7 +823,7 @@
         <f>$I$6*L8</f>
         <v>86289</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="21">
         <f>SUM(M8:M10)</f>
         <v>172578</v>
       </c>
@@ -745,10 +836,10 @@
         <v>0.2</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" ref="M9:M10" si="0">$I$6*L9</f>
+        <f t="shared" ref="M9" si="0">$I$6*L9</f>
         <v>34515.599999999999</v>
       </c>
-      <c r="N9" s="5"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.3">
       <c r="K10" s="1" t="s">
@@ -761,7 +852,7 @@
         <f>$I$6*L10</f>
         <v>51773.4</v>
       </c>
-      <c r="N10" s="5"/>
+      <c r="N10" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -773,111 +864,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K30"/>
+  <dimension ref="B3:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="1" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="5">
         <v>6200</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="6">
         <f>D4</f>
         <v>6200</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="9">
         <f>E4*'5 - OSR'!G6</f>
         <v>7440</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="5">
         <v>7290</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="22">
         <f>SUM(D5:D7)</f>
         <v>34510</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="22">
         <f>E5*'5 - OSR'!G6</f>
         <v>41412</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f>'5 - OSR'!M8</f>
         <v>86289</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="7">
         <v>8190</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="J6" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <f>H5-H7</f>
         <v>2634.6000000000058</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="8">
         <v>19030</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <f>SUM(F4:F16)</f>
         <v>83654.399999999994</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
         <f>SUM(D8:D10)</f>
         <v>1418</v>
       </c>
@@ -885,209 +979,147 @@
         <f>SUM(E8:E16)*'5 - OSR'!G6</f>
         <v>34802.400000000001</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <f>ROUND((K6/H5) * 100, 2)</f>
         <v>3.05</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="7">
         <v>1418</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="26"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="18">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19"/>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="23"/>
       <c r="F10" s="26"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="7">
         <v>15598</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="23">
         <f>SUM(D11:D12)</f>
         <v>16858</v>
       </c>
       <c r="F11" s="26"/>
-      <c r="J11" t="s">
+      <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <f>K6+'5 - OSR'!M9</f>
         <v>37150.200000000004</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="18">
+      <c r="B12" s="29"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="7">
         <v>1260</v>
       </c>
-      <c r="E12" s="19"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="26"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="7">
         <v>5672</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="23">
         <f>SUM(D13:D14)</f>
         <v>6092</v>
       </c>
       <c r="F13" s="26"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="18">
+      <c r="B14" s="29"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="7">
         <v>420</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="26"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="7">
         <v>4254</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="23">
         <f>SUM(D15:D16)</f>
         <v>4634</v>
       </c>
       <c r="F15" s="26"/>
     </row>
     <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="20"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="21">
+      <c r="B16" s="30"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="8">
         <v>380</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="27"/>
     </row>
-    <row r="17" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="H18" s="8"/>
+    <row r="17" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <f>D17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <f>E17*'5 - OSR'!G6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="9"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <f>E4+E5+SUM(E8:E16)</f>
         <v>69712</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <f>I19*1.2</f>
         <v>83654.399999999994</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="4"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C21" s="4"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="4"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C23" s="4"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C24" s="4"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C25" s="4"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C26" s="4"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="4"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="4"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="4"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="4"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1110,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J21"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1121,244 +1153,352 @@
     <col min="6" max="6" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="28" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="2">
         <v>12440</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <f>C2</f>
         <v>12440</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="3">
         <f>D2*'5 - OSR'!G6</f>
         <v>14928</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="13">
-        <v>6615</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C3" s="19">
+        <v>0</v>
+      </c>
+      <c r="D3" s="22">
         <f>SUM(C3:C5)</f>
-        <v>6615</v>
-      </c>
-      <c r="E3" s="16">
+        <v>7630</v>
+      </c>
+      <c r="E3" s="22">
         <f>D3*'5 - OSR'!G6</f>
-        <v>7938</v>
-      </c>
-      <c r="F3" t="s">
+        <v>9156</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f>Summator1!K11</f>
         <v>37150.200000000004</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="19"/>
-      <c r="I4" t="s">
+      <c r="C4" s="17">
+        <v>7630</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <f>G3-G5</f>
-        <v>419.40000000000146</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="31" t="s">
+        <v>-56.999999999992724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="38"/>
+      <c r="B5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="21">
-        <v>0</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" t="s">
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5">
-        <f>SUM(E2:E17)</f>
-        <v>36730.800000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+      <c r="G5" s="1">
+        <f>SUM(E2:E18)</f>
+        <v>37207.199999999997</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6" s="19">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
         <f>SUM(C6:C8)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="16">
-        <f>SUM(C6:C28)*'5 - OSR'!G6</f>
-        <v>13864.8</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="E6" s="22">
+        <f>SUM(C6:C17)*'5 - OSR'!G6</f>
+        <v>13123.199999999999</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <f>ROUND((J4/G3) * 100, 2)</f>
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="30" t="s">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
+      <c r="B7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="18">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="30" t="s">
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="40"/>
+      <c r="B8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="18">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="30" t="s">
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="40"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="1">
+        <f>J4+'5 - OSR'!M10</f>
+        <v>51716.400000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="40"/>
+      <c r="B10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="17">
+        <v>4254</v>
+      </c>
+      <c r="D10" s="23">
+        <f>SUM(C10:C11)</f>
+        <v>4634</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="40"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="17">
+        <v>380</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="B12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="17">
+        <v>5672</v>
+      </c>
+      <c r="D12" s="23">
+        <f>SUM(C12:C13)</f>
+        <v>6302</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="17">
+        <v>630</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
+      <c r="B14" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14" s="23">
+        <f>SUM(C14:C15)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="40"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="40"/>
+      <c r="B16" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="23">
+        <f>SUM(C16:C17)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="41"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="1">
+        <f>SUM(C2:C17)</f>
+        <v>31006</v>
+      </c>
+      <c r="I17" s="1">
+        <f>H17*1.2</f>
+        <v>37207.199999999997</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="18">
-        <v>0</v>
-      </c>
-      <c r="D9" s="18">
-        <f>C9</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9">
-        <f>J4+'5 - OSR'!M10</f>
-        <v>52192.800000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="18">
-        <v>4254</v>
-      </c>
-      <c r="D10" s="11">
-        <f>SUM(C10:C11)</f>
-        <v>4254</v>
-      </c>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="18">
-        <v>5672</v>
-      </c>
-      <c r="D12" s="11">
-        <f>SUM(C12:C13)</f>
-        <v>5672</v>
-      </c>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11">
-        <f>SUM(C14:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="18">
-        <v>1418</v>
-      </c>
-      <c r="D16" s="11">
-        <f>SUM(C16:C17)</f>
-        <v>1628</v>
-      </c>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21">
-        <v>210</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="G17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17">
-        <f>SUM(C2:C17)</f>
-        <v>30609</v>
-      </c>
-      <c r="I17">
-        <f>H17*1.2</f>
-        <v>36730.799999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E21" s="8"/>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <f>C18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <f>D18*'5 - OSR'!G6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="35"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E25" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="A3:A5"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D3:D5"/>
@@ -1378,288 +1518,524 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J22"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="28" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="2">
         <v>20244</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <f>C2</f>
         <v>20244</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="3">
         <f>D2*'5 - OSR'!G6</f>
         <v>24292.799999999999</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="13">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C3" s="5">
+        <v>6615</v>
+      </c>
+      <c r="D3" s="22">
         <f>SUM(C3:C5)</f>
-        <v>7630</v>
-      </c>
-      <c r="E3" s="16">
+        <v>6615</v>
+      </c>
+      <c r="E3" s="22">
         <f>D3*'5 - OSR'!G6</f>
-        <v>9156</v>
-      </c>
-      <c r="F3" t="s">
+        <v>7938</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f>Summator2!J9</f>
-        <v>52192.800000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
+        <v>51716.400000000009</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="18">
-        <v>7630</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="19"/>
-      <c r="I4" t="s">
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <f>G3-G5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="31" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="38"/>
+      <c r="B5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="21">
-        <v>0</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" t="s">
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5">
-        <f>SUM(E2:E17)</f>
-        <v>52192.800000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+      <c r="G5" s="1">
+        <f>SUM(E2:E18)</f>
+        <v>51716.4</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
         <f>SUM(C6:C8)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="22">
         <f>SUM(D6:D17)*'5 - OSR'!G6</f>
-        <v>18744</v>
-      </c>
-      <c r="I6" t="s">
+        <v>1953.6</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <f>ROUND((J4/G3) * 100, 2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="30" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="18">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="30" t="s">
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="40"/>
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="18">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="18">
-        <f>7020+7590</f>
-        <v>14610</v>
-      </c>
-      <c r="D9" s="18">
-        <f>C9</f>
-        <v>14610</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="I9" t="s">
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="40"/>
+      <c r="B9" s="33">
+        <v>0</v>
+      </c>
+      <c r="C9" s="34">
+        <v>0</v>
+      </c>
+      <c r="D9" s="43">
+        <v>0</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <f>J4+'5 - OSR'!M10</f>
         <v>51773.4</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="40"/>
+      <c r="B10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="18">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="23">
         <f>SUM(C10:C11)</f>
-        <v>380</v>
-      </c>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18">
-        <v>380</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="40"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="B12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="18">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="23">
         <f>SUM(C12:C13)</f>
-        <v>630</v>
-      </c>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18">
-        <v>630</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
+      <c r="B14" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="18">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="23">
         <f>SUM(C14:C15)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+      <c r="E14" s="23"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="40"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="40"/>
+      <c r="B16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="18">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11">
-        <f>SUM(C17:C20)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21">
-        <v>0</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="G17" s="2" t="s">
+      <c r="C16" s="7">
+        <v>1418</v>
+      </c>
+      <c r="D16" s="23">
+        <f>SUM(C16:C17)</f>
+        <v>1628</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="41"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="8">
+        <v>210</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <f>SUM(C2:C17)</f>
-        <v>43494</v>
-      </c>
-      <c r="I17">
+        <v>28487</v>
+      </c>
+      <c r="I17" s="1">
         <f>H17*1.2</f>
-        <v>52192.799999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F20" t="s">
+        <v>34184.400000000001</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2">
+        <v>14610</v>
+      </c>
+      <c r="D18" s="3">
+        <f>C18</f>
+        <v>14610</v>
+      </c>
+      <c r="E18" s="3">
+        <f>D18*'5 - OSR'!G6</f>
+        <v>17532</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F21">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
         <f>G5+Summator2!G5+Summator1!H7</f>
         <v>172578</v>
       </c>
-      <c r="G21">
-        <f>G3+Summator2!G3+Summator1!H5</f>
-        <v>175632</v>
-      </c>
-      <c r="H21">
+      <c r="G21" s="1">
+        <f>G3+Summator2!G5+Summator1!H7</f>
+        <v>172578</v>
+      </c>
+      <c r="H21" s="1">
         <f>H17+Summator2!H17+Summator1!I19</f>
-        <v>143815</v>
-      </c>
-      <c r="I21">
+        <v>129205</v>
+      </c>
+      <c r="I21" s="1">
         <f>I17+Summator2!I17+Summator1!J19</f>
-        <v>172578</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H22" s="8"/>
+        <v>155046</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E26" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D8"/>

--- a/PASKurs/лабораторные работы/l6/PAS6.xlsx
+++ b/PASKurs/лабораторные работы/l6/PAS6.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFC3602-2AD2-4E0C-9CCB-DBF4CE0FE3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="14580" yWindow="1695" windowWidth="14445" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5 - OSR" sheetId="1" r:id="rId1"/>
@@ -12,10 +13,19 @@
     <sheet name="Summator2" sheetId="4" r:id="rId3"/>
     <sheet name="Summator3" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -141,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,6 +432,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,13 +481,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,21 +497,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,25 +778,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D6:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="11.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="5.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="1" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="5.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1"/>
     <col min="8" max="8" width="5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,12 +817,12 @@
         <v>172578</v>
       </c>
     </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:14" x14ac:dyDescent="0.25">
       <c r="L7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:14" x14ac:dyDescent="0.25">
       <c r="K8" s="1" t="s">
         <v>3</v>
       </c>
@@ -823,12 +833,12 @@
         <f>$I$6*L8</f>
         <v>86289</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="26">
         <f>SUM(M8:M10)</f>
         <v>172578</v>
       </c>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:14" x14ac:dyDescent="0.25">
       <c r="K9" s="1" t="s">
         <v>4</v>
       </c>
@@ -839,9 +849,9 @@
         <f t="shared" ref="M9" si="0">$I$6*L9</f>
         <v>34515.599999999999</v>
       </c>
-      <c r="N9" s="21"/>
-    </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N9" s="26"/>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.25">
       <c r="K10" s="1" t="s">
         <v>5</v>
       </c>
@@ -852,7 +862,7 @@
         <f>$I$6*L10</f>
         <v>51773.4</v>
       </c>
-      <c r="N10" s="21"/>
+      <c r="N10" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -863,24 +873,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="10.88671875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" style="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>31</v>
       </c>
@@ -899,8 +909,8 @@
         <v>7440</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -909,13 +919,13 @@
       <c r="D5" s="5">
         <v>7290</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="27">
         <f>SUM(D5:D7)</f>
-        <v>34510</v>
-      </c>
-      <c r="F5" s="22">
+        <v>26320</v>
+      </c>
+      <c r="F5" s="27">
         <f>E5*'5 - OSR'!G6</f>
-        <v>41412</v>
+        <v>31584</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>15</v>
@@ -925,44 +935,44 @@
         <v>86289</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="34"/>
       <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>8190</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="1">
         <f>H5-H7</f>
-        <v>2634.6000000000058</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="30"/>
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="35"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="8">
         <v>19030</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="1">
-        <f>SUM(F4:F16)</f>
-        <v>83654.399999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
+        <f>SUM(F4:F17)</f>
+        <v>84048</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -971,122 +981,122 @@
       <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="27">
         <f>SUM(D8:D10)</f>
         <v>1418</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="30">
         <f>SUM(E8:E16)*'5 - OSR'!G6</f>
-        <v>34802.400000000001</v>
+        <v>27492</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="1">
         <f>ROUND((K6/H5) * 100, 2)</f>
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="34"/>
       <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="7">
         <v>1418</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="34"/>
       <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="31" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="34"/>
+      <c r="C11" s="36" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="7">
         <v>15598</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="28">
         <f>SUM(D11:D12)</f>
         <v>16858</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="31"/>
       <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="1">
         <f>K6+'5 - OSR'!M9</f>
-        <v>37150.200000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
-      <c r="C12" s="31"/>
+        <v>36756.6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="34"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="7">
         <v>1260</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="29"/>
-      <c r="C13" s="31" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
+      <c r="C13" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>5672</v>
-      </c>
-      <c r="E13" s="23">
+        <v>0</v>
+      </c>
+      <c r="E13" s="28">
         <f>SUM(D13:D14)</f>
-        <v>6092</v>
-      </c>
-      <c r="F13" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="31"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="29"/>
-      <c r="C14" s="31"/>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="7">
-        <v>420</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
+      <c r="C15" s="36" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="7">
         <v>4254</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="28">
         <f>SUM(D15:D16)</f>
         <v>4634</v>
       </c>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="30"/>
-      <c r="C16" s="32"/>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="35"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="8">
         <v>380</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="29"/>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>31</v>
       </c>
@@ -1094,31 +1104,31 @@
         <v>28</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>14610</v>
       </c>
       <c r="E17" s="3">
         <f>D17</f>
-        <v>0</v>
+        <v>14610</v>
       </c>
       <c r="F17" s="3">
         <f>E17*'5 - OSR'!G6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>17532</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="1">
         <f>E4+E5+SUM(E8:E16)</f>
-        <v>69712</v>
+        <v>55430</v>
       </c>
       <c r="J19" s="1">
         <f>I19*1.2</f>
-        <v>83654.399999999994</v>
+        <v>66516</v>
       </c>
     </row>
   </sheetData>
@@ -1141,20 +1151,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
@@ -1178,45 +1188,45 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C3" s="19">
         <v>0</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="27">
         <f>SUM(C3:C5)</f>
-        <v>7630</v>
-      </c>
-      <c r="E3" s="22">
+        <v>6615</v>
+      </c>
+      <c r="E3" s="27">
         <f>D3*'5 - OSR'!G6</f>
-        <v>9156</v>
+        <v>7938</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1">
         <f>Summator1!K11</f>
-        <v>37150.200000000004</v>
+        <v>36756.6</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
       <c r="B4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="17">
-        <v>7630</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1225,32 +1235,32 @@
       </c>
       <c r="J4" s="1">
         <f>G3-G5</f>
-        <v>-56.999999999992724</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
+        <v>1019.4000000000015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="43"/>
       <c r="B5" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="18">
-        <v>0</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+        <v>6615</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="1">
         <f>SUM(E2:E18)</f>
-        <v>37207.199999999997</v>
+        <v>35737.199999999997</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -1259,13 +1269,13 @@
       <c r="C6" s="19">
         <v>0</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="27">
         <f>SUM(C6:C8)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="27">
         <f>SUM(C6:C17)*'5 - OSR'!G6</f>
-        <v>13123.199999999999</v>
+        <v>12871.199999999999</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1275,47 +1285,47 @@
       </c>
       <c r="J6" s="1">
         <f>ROUND((J4/G3) * 100, 2)</f>
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
       <c r="B7" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="17">
         <v>0</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
       <c r="B8" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="17">
         <v>0</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="23"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1324,150 +1334,150 @@
       </c>
       <c r="J9" s="1">
         <f>J4+'5 - OSR'!M10</f>
-        <v>51716.400000000009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="31" t="s">
+        <v>52792.800000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="17">
         <v>4254</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="28">
         <f>SUM(C10:C11)</f>
         <v>4634</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="31"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="17">
         <v>380</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="31" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="17">
-        <v>5672</v>
-      </c>
-      <c r="D12" s="23">
+        <v>0</v>
+      </c>
+      <c r="D12" s="28">
         <f>SUM(C12:C13)</f>
-        <v>6302</v>
-      </c>
-      <c r="E12" s="23"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="28"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="31"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="17">
-        <v>630</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="31" t="s">
-        <v>29</v>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="36" t="s">
+        <v>13</v>
       </c>
       <c r="C14" s="17">
-        <v>0</v>
-      </c>
-      <c r="D14" s="23">
+        <v>5672</v>
+      </c>
+      <c r="D14" s="28">
         <f>SUM(C14:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="23"/>
+        <v>6092</v>
+      </c>
+      <c r="E14" s="28"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="31"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="17">
-        <v>0</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+        <v>420</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="31" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="17">
         <v>0</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="28">
         <f>SUM(C16:C17)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="41"/>
-      <c r="B17" s="31"/>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="17">
         <v>0</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(C2:C17)</f>
-        <v>31006</v>
+        <v>29781</v>
       </c>
       <c r="I17" s="1">
         <f>H17*1.2</f>
-        <v>37207.199999999997</v>
+        <v>35737.199999999997</v>
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>31</v>
       </c>
@@ -1486,23 +1496,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="35"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="23"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E21" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E25" s="35"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E25" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="E6:E17"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="D10:D11"/>
@@ -1510,28 +1515,33 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
@@ -1558,30 +1568,30 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>6615</v>
-      </c>
-      <c r="D3" s="22">
+        <v>8190</v>
+      </c>
+      <c r="D3" s="27">
         <f>SUM(C3:C5)</f>
-        <v>6615</v>
-      </c>
-      <c r="E3" s="22">
+        <v>15820</v>
+      </c>
+      <c r="E3" s="27">
         <f>D3*'5 - OSR'!G6</f>
-        <v>7938</v>
+        <v>18984</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1">
         <f>Summator2!J9</f>
-        <v>51716.400000000009</v>
+        <v>52792.800000000003</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1590,16 +1600,16 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
       <c r="B4" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+        <v>7630</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1614,22 +1624,22 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="43"/>
       <c r="B5" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="1">
         <f>SUM(E2:E18)</f>
-        <v>51716.4</v>
+        <v>52792.800000000003</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1638,8 +1648,8 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -1648,13 +1658,13 @@
       <c r="C6" s="5">
         <v>0</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="27">
         <f>SUM(C6:C8)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="27">
         <f>SUM(D6:D17)*'5 - OSR'!G6</f>
-        <v>1953.6</v>
+        <v>9516</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1670,16 +1680,16 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1689,16 +1699,16 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
       <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1708,18 +1718,18 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="33">
-        <v>0</v>
-      </c>
-      <c r="C9" s="34">
-        <v>0</v>
-      </c>
-      <c r="D9" s="43">
-        <v>0</v>
-      </c>
-      <c r="E9" s="23"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="21">
+        <v>0</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0</v>
+      </c>
+      <c r="E9" s="28"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1734,19 +1744,19 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="29" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="28">
         <f>SUM(C10:C11)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1756,14 +1766,14 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="29"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1773,19 +1783,19 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="29" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="23">
+        <v>5672</v>
+      </c>
+      <c r="D12" s="28">
         <f>SUM(C12:C13)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="23"/>
+        <v>6302</v>
+      </c>
+      <c r="E12" s="28"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1795,14 +1805,14 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="29"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+        <v>630</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1812,19 +1822,19 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="29" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="28">
         <f>SUM(C14:C15)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1834,14 +1844,14 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="29"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="7">
         <v>0</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1851,19 +1861,19 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="29" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="7">
         <v>1418</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="28">
         <f>SUM(C16:C17)</f>
         <v>1628</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1873,32 +1883,32 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="41"/>
-      <c r="B17" s="30"/>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="8">
         <v>210</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(C2:C17)</f>
-        <v>28487</v>
+        <v>43994</v>
       </c>
       <c r="I17" s="1">
         <f>H17*1.2</f>
-        <v>34184.400000000001</v>
+        <v>52792.799999999996</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>31</v>
       </c>
@@ -1906,15 +1916,15 @@
         <v>28</v>
       </c>
       <c r="C18" s="2">
-        <v>14610</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3">
         <f>C18</f>
-        <v>14610</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <f>D18*'5 - OSR'!G6</f>
-        <v>17532</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1925,11 +1935,11 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="42"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1939,7 +1949,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1961,7 +1971,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1987,7 +1997,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2001,7 +2011,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2015,7 +2025,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2029,16 +2039,12 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E26" s="35"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="E6:E17"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="D10:D11"/>
@@ -2047,7 +2053,11 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
